--- a/genshin/435499380192909013_2020-09-16_14-00-01.xlsx
+++ b/genshin/435499380192909013_2020-09-16_14-00-01.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:38:17</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.10991898148</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3806969146</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:38:10</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44177.10983796296</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>3497953351</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-19 14:46:01</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44093.61528935185</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-19 13:33:59</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44093.5652662037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-19 13:04:15</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44093.54461805556</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -894,10 +900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-19 10:45:22</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44093.4481712963</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -957,10 +961,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-18 16:28:03</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44092.68614583334</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1024,10 +1026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-18 16:21:01</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44092.68126157407</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1091,10 +1091,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-18 14:58:38</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44092.62405092592</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1166,10 +1164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-18 14:54:03</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44092.62086805556</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1237,10 +1233,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-18 14:00:58</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44092.58400462963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1304,10 +1298,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-18 12:57:08</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44092.53967592592</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1379,10 +1371,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-18 12:30:13</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44092.5209837963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1446,10 +1436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-18 07:05:25</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44092.29542824074</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1521,10 +1509,8 @@
           <t>3499754184</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-18 00:15:18</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44092.010625</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1592,10 +1578,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-17 22:19:29</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44091.93019675926</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1667,10 +1651,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-17 22:13:26</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44091.92599537037</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1742,10 +1724,8 @@
           <t>3502318605</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-17 20:33:18</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44091.85645833334</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1813,10 +1793,8 @@
           <t>3498616458</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-17 20:26:43</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44091.85188657408</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1884,10 +1862,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:54:08</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44091.82925925926</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1951,10 +1927,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:46:57</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44091.82427083333</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
@@ -2018,10 +1992,8 @@
           <t>3502041115</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:15:11</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44091.80221064815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2093,10 +2065,8 @@
           <t>3501665692</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:31:22</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44091.73011574074</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2164,10 +2134,8 @@
           <t>3501454019</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:14:48</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44091.67694444444</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2239,10 +2207,8 @@
           <t>3501444472</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:14:14</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44091.67655092593</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2314,10 +2280,8 @@
           <t>3501187660</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:18:59</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44091.5965162037</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2393,10 +2357,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-17 13:28:37</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44091.56153935185</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2472,10 +2434,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-17 13:28:14</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44091.56127314815</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2551,10 +2511,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-17 12:57:45</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44091.54010416667</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2626,10 +2584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-17 12:57:31</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44091.53994212963</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2701,10 +2657,8 @@
           <t>3500842253</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-17 12:19:24</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44091.51347222222</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2764,10 +2718,8 @@
           <t>3500757971</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-17 11:55:19</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44091.49674768518</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2839,10 +2791,8 @@
           <t>3500765701</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-17 11:53:44</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44091.49564814815</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2914,10 +2864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-17 11:52:26</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44091.49474537037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2981,10 +2929,8 @@
           <t>3497851686</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-17 10:47:29</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44091.4496412037</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3048,10 +2994,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-17 10:20:56</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44091.4312037037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3119,10 +3063,8 @@
           <t>3500467444</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-17 09:44:27</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44091.40586805555</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3186,10 +3128,8 @@
           <t>3500461470</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-17 09:42:41</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44091.40464120371</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3253,10 +3193,8 @@
           <t>3499754184</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-17 09:40:41</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44091.40325231481</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3324,10 +3262,8 @@
           <t>3500451896</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-17 09:35:27</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44091.39961805556</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3391,10 +3327,8 @@
           <t>3498616458</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-17 08:54:00</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44091.37083333333</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3466,10 +3400,8 @@
           <t>3500360317</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-17 08:45:09</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44091.3646875</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3537,10 +3469,8 @@
           <t>3500124576</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-17 08:12:43</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44091.34216435185</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3608,10 +3538,8 @@
           <t>3500305665</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-17 08:11:40</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44091.34143518518</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3688,10 +3616,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-17 08:11:24</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44091.34125</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3767,10 +3693,8 @@
           <t>3500278687</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-17 07:58:07</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44091.33202546297</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3846,10 +3770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-17 07:56:36</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44091.33097222223</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3925,10 +3847,8 @@
           <t>3500272047</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-17 07:53:31</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44091.32883101852</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4004,10 +3924,8 @@
           <t>3500124576</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-17 04:43:17</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44091.19672453704</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4075,10 +3993,8 @@
           <t>3500089185</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-17 03:29:06</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44091.14520833334</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4142,10 +4058,8 @@
           <t>3499990372</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-17 03:21:30</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44091.13993055555</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4217,10 +4131,8 @@
           <t>3499990372</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-17 03:14:33</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44091.13510416666</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4292,10 +4204,8 @@
           <t>3499990372</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-17 03:14:08</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44091.13481481482</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4367,10 +4277,8 @@
           <t>3499990372</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-17 03:09:18</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44091.13145833334</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4442,10 +4350,8 @@
           <t>3499990372</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-17 03:04:17</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44091.12797453703</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4517,10 +4423,8 @@
           <t>3499990372</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-17 03:03:00</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44091.12708333333</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4592,10 +4496,8 @@
           <t>3499990372</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-17 03:02:01</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44091.12640046296</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4667,10 +4569,8 @@
           <t>3499990372</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-17 03:00:51</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44091.12559027778</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4742,10 +4642,8 @@
           <t>3499990372</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-17 02:57:17</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44091.12311342593</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4817,10 +4715,8 @@
           <t>3499966262</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-17 02:51:57</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44091.11940972223</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4892,10 +4788,8 @@
           <t>3499447192</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-17 02:48:13</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44091.11681712963</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4967,10 +4861,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-17 02:41:30</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44091.11215277778</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5042,10 +4934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-17 02:35:46</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44091.1081712963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5111,10 +5001,8 @@
           <t>3499966262</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-17 02:18:51</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44091.09642361111</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -5182,10 +5070,8 @@
           <t>3498418455</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-17 02:00:11</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44091.08346064815</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5249,10 +5135,8 @@
           <t>3499966262</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:46:42</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44091.07409722222</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5324,10 +5208,8 @@
           <t>3499161660</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:36:42</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44091.06715277778</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5396,10 +5278,8 @@
           <t>3499966262</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:36:11</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44091.06679398148</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5467,10 +5347,8 @@
           <t>3499990372</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:31:06</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44091.06326388889</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5542,10 +5420,8 @@
           <t>3499981743</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:31:01</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44091.06320601852</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5613,10 +5489,8 @@
           <t>3499985251</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:30:03</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44091.06253472222</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5684,10 +5558,8 @@
           <t>3499161660</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:28:29</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44091.06144675926</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5759,10 +5631,8 @@
           <t>3498515781</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:27:32</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44091.06078703704</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5830,10 +5700,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:26:24</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44091.06</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5905,10 +5773,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:25:00</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44091.05902777778</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5980,10 +5846,8 @@
           <t>3499966262</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:20:40</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44091.05601851852</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6055,10 +5919,8 @@
           <t>3499965891</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:20:01</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44091.05556712963</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6130,10 +5992,8 @@
           <t>3499447192</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:17:57</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44091.05413194445</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6205,10 +6065,8 @@
           <t>3498616458</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:04:23</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44091.04471064815</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6272,10 +6130,8 @@
           <t>3499929427</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-17 01:03:32</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44091.04412037037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6347,10 +6203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:58:58</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44091.04094907407</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6418,10 +6272,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:34:50</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44091.02418981482</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6489,10 +6341,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:32:30</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44091.02256944445</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6564,10 +6414,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:30:44</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44091.02134259259</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6635,10 +6483,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:30:15</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44091.02100694444</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6710,10 +6556,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:30:15</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44091.02100694444</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6781,10 +6625,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:29:00</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44091.02013888889</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6852,10 +6694,8 @@
           <t>3497874527</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:28:36</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44091.01986111111</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6923,10 +6763,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:28:19</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44091.01966435185</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6999,10 +6837,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:24:43</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44091.01716435186</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7070,10 +6906,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:24:36</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44091.01708333333</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7145,10 +6979,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:20:59</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44091.01457175926</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7216,10 +7048,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:20:39</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44091.01434027778</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7291,10 +7121,8 @@
           <t>3499816052</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:16:28</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44091.01143518519</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7358,10 +7186,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:13:11</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44091.00915509259</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7425,10 +7251,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:12:28</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44091.00865740741</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7500,10 +7324,8 @@
           <t>3499787535</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:08:35</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44091.00596064814</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7574,10 +7396,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:07:33</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44091.00524305556</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7649,10 +7469,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:07:21</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44091.00510416667</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7720,10 +7538,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:06:07</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44091.00424768519</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7795,10 +7611,8 @@
           <t>3499763805</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:03:30</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44091.00243055556</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7866,10 +7680,8 @@
           <t>3499754184</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-17 00:00:20</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44091.00023148148</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7937,10 +7749,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-16 23:58:18</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44090.99881944444</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8004,10 +7814,8 @@
           <t>3499696740</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-16 23:43:22</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44090.98844907407</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8079,10 +7887,8 @@
           <t>3499680308</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-16 23:38:31</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44090.98508101852</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8158,10 +7964,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-16 23:34:58</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44090.98261574074</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8233,10 +8037,8 @@
           <t>3499553846</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-16 23:09:49</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44090.96515046297</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8300,10 +8102,8 @@
           <t>3499447192</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-16 23:05:40</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44090.96226851852</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8375,10 +8175,8 @@
           <t>3499487854</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-16 22:54:23</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44090.95443287037</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8442,10 +8240,8 @@
           <t>3499467101</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-16 22:48:25</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44090.95028935185</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8513,10 +8309,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-16 22:45:34</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44090.94831018519</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8584,10 +8378,8 @@
           <t>3499447192</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-16 22:43:29</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44090.94686342592</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8655,10 +8447,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-16 22:39:58</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44090.9444212963</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8722,10 +8512,8 @@
           <t>3499340938</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-16 22:17:49</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44090.92903935185</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8793,10 +8581,8 @@
           <t>3499308485</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-16 22:11:08</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44090.92439814815</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8864,10 +8650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-16 22:06:58</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44090.92150462963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8940,10 +8724,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-16 22:04:41</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44090.91991898148</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9011,10 +8793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-16 22:03:24</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44090.91902777777</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9086,10 +8866,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-16 22:01:54</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44090.91798611111</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9165,10 +8943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-16 21:35:45</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44090.89982638889</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9240,10 +9016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-16 21:33:24</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44090.89819444445</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9315,10 +9089,8 @@
           <t>3499161660</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-16 21:33:01</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44090.89792824074</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9386,10 +9158,8 @@
           <t>3499149400</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-16 21:31:15</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44090.89670138889</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9461,10 +9231,8 @@
           <t>3498616458</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-16 21:24:17</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44090.89186342592</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9536,10 +9304,8 @@
           <t>3498616458</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-16 21:23:53</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44090.89158564815</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9611,10 +9377,8 @@
           <t>3497953351</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:33:14</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44090.85641203704</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9682,10 +9446,8 @@
           <t>3498929738</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:31:11</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44090.85498842593</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9753,10 +9515,8 @@
           <t>3498931840</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:29:08</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44090.85356481482</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9824,10 +9584,8 @@
           <t>3498925871</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:27:58</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44090.85275462963</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9900,10 +9658,8 @@
           <t>3498925460</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:27:39</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44090.85253472222</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9976,10 +9732,8 @@
           <t>3498919480</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:27:14</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44090.85224537037</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10052,10 +9806,8 @@
           <t>3498917833</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:25:52</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44090.8512962963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10128,10 +9880,8 @@
           <t>3498600063</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:23:10</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44090.8494212963</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10207,10 +9957,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:19:01</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44090.84653935185</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10286,10 +10034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:08:43</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44090.83938657407</v>
       </c>
       <c r="I136" t="n">
         <v>5</v>
@@ -10355,10 +10101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:08:15</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44090.8390625</v>
       </c>
       <c r="I137" t="n">
         <v>3</v>
@@ -10426,10 +10170,8 @@
           <t>3498838822</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-16 20:05:46</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44090.83733796296</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10493,10 +10235,8 @@
           <t>3498418455</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-16 19:58:29</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44090.8322800926</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10564,10 +10304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-16 19:45:24</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44090.82319444444</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10639,10 +10377,8 @@
           <t>3498734036</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-16 19:37:37</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44090.81778935185</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10706,10 +10442,8 @@
           <t>3498712648</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-16 19:31:55</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44090.81383101852</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10785,10 +10519,8 @@
           <t>3498328933</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-16 19:27:49</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44090.8109837963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10864,10 +10596,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-16 19:19:11</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44090.80498842592</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10943,10 +10673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-16 19:12:25</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44090.80028935185</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11006,10 +10734,8 @@
           <t>3498637872</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-16 19:11:09</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44090.79940972223</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11085,10 +10811,8 @@
           <t>3498616458</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-16 19:03:09</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44090.79385416667</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11152,10 +10876,8 @@
           <t>3498242556</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:58:49</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44090.79084490741</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11227,10 +10949,8 @@
           <t>3498600063</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:58:03</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44090.7903125</v>
       </c>
       <c r="I149" t="n">
         <v>6</v>
@@ -11302,10 +11022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:57:20</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44090.78981481482</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11369,10 +11087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:52:43</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44090.7866087963</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11448,10 +11164,8 @@
           <t>3498242556</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:52:27</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44090.78642361111</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11523,10 +11237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:38:36</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44090.77680555556</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11594,10 +11306,8 @@
           <t>3498515781</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:36:09</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44090.77510416666</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11667,10 +11377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:34:39</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44090.7740625</v>
       </c>
       <c r="I155" t="n">
         <v>20</v>
@@ -11738,10 +11446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:23:29</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44090.76630787037</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11801,10 +11507,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:19:57</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44090.76385416667</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11880,10 +11584,8 @@
           <t>3498450894</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:17:11</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44090.76193287037</v>
       </c>
       <c r="I158" t="n">
         <v>5</v>
@@ -11959,10 +11661,8 @@
           <t>3498434177</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:14:13</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44090.75987268519</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -12034,10 +11734,8 @@
           <t>3498429545</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:13:28</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44090.75935185186</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12109,10 +11807,8 @@
           <t>3498433037</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:13:13</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44090.75917824074</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12176,10 +11872,8 @@
           <t>3498418455</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:09:12</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44090.75638888889</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12243,10 +11937,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:05:05</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44090.7535300926</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12318,10 +12010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:01:53</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44090.75130787037</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12393,10 +12083,8 @@
           <t>3497953351</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:01:50</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44090.75127314815</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -12456,10 +12144,8 @@
           <t>3498328933</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:01:26</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44090.75099537037</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12531,10 +12217,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:59:58</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44090.74997685185</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12610,10 +12294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:58:31</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44090.74896990741</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12677,10 +12359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:56:57</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44090.74788194444</v>
       </c>
       <c r="I169" t="n">
         <v>9</v>
@@ -12744,10 +12424,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:56:31</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44090.74758101852</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12823,10 +12501,8 @@
           <t>3498375620</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:54:48</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44090.74638888889</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12898,10 +12574,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:54:48</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44090.74638888889</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12977,10 +12651,8 @@
           <t>3498363569</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:52:57</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44090.74510416666</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13048,10 +12720,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:52:25</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44090.74473379629</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13127,10 +12797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:51:35</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44090.74415509259</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13202,10 +12870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:49:22</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44090.74261574074</v>
       </c>
       <c r="I176" t="n">
         <v>5</v>
@@ -13275,10 +12941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:49:05</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44090.74241898148</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13354,10 +13018,8 @@
           <t>3498328933</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:45:54</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44090.74020833334</v>
       </c>
       <c r="I178" t="n">
         <v>2</v>
@@ -13430,10 +13092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:44:21</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44090.73913194444</v>
       </c>
       <c r="I179" t="n">
         <v>3</v>
@@ -13505,10 +13165,8 @@
           <t>3498336453</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:43:21</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44090.7384375</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13580,10 +13238,8 @@
           <t>3498328933</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:41:31</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44090.73716435185</v>
       </c>
       <c r="I181" t="n">
         <v>4</v>
@@ -13655,10 +13311,8 @@
           <t>3497985798</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:38:34</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44090.73511574074</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13730,10 +13384,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:37:02</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44090.73405092592</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13805,10 +13457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:33:58</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44090.7319212963</v>
       </c>
       <c r="I184" t="n">
         <v>2</v>
@@ -13876,10 +13526,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:29:09</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44090.72857638889</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13951,10 +13599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:27:17</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44090.72728009259</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14022,10 +13668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:20:06</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44090.72229166667</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14101,10 +13745,8 @@
           <t>3497917934</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:11:16</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44090.71615740741</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14180,10 +13822,8 @@
           <t>3498242556</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:10:41</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44090.71575231481</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14255,10 +13895,8 @@
           <t>3497917934</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:10:34</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44090.7156712963</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14334,10 +13972,8 @@
           <t>3497953351</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:07:41</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44090.71366898148</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14405,10 +14041,8 @@
           <t>3497917934</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:07:37</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44090.71362268519</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14472,10 +14106,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:57:47</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44090.70679398148</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14551,10 +14183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:55:23</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44090.70512731482</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14618,10 +14248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:51:04</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44090.70212962963</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14689,10 +14317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:47:58</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44090.69997685185</v>
       </c>
       <c r="I196" t="n">
         <v>6</v>
@@ -14756,10 +14382,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:47:15</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44090.69947916667</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14823,10 +14447,8 @@
           <t>3497917934</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:44:30</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44090.69756944444</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14890,10 +14512,8 @@
           <t>3498033291</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:40:23</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44090.69471064815</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14969,10 +14589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:37:19</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44090.69258101852</v>
       </c>
       <c r="I200" t="n">
         <v>25</v>
@@ -15048,10 +14666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:33:11</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44090.68971064815</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15119,10 +14735,8 @@
           <t>3498033291</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:31:57</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44090.68885416666</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15198,10 +14812,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:28:57</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44090.68677083333</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15265,10 +14877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:26:05</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44090.68478009259</v>
       </c>
       <c r="I204" t="n">
         <v>2</v>
@@ -15336,10 +14946,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:16:19</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44090.67799768518</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15407,10 +15015,8 @@
           <t>3498033291</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:14:59</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44090.67707175926</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15479,10 +15085,8 @@
           <t>3498033291</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:01:15</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44090.66753472222</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -15558,10 +15162,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:00:38</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44090.66710648148</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15625,10 +15227,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:00:15</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44090.66684027778</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15700,10 +15300,8 @@
           <t>3498033291</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:58:07</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44090.66535879629</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15779,10 +15377,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:57:22</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44090.66483796296</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15858,10 +15454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:56:05</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44090.66394675926</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15929,10 +15523,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:55:10</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44090.66331018518</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16008,10 +15600,8 @@
           <t>3498033291</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:53:59</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44090.66248842593</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16088,10 +15678,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:53:43</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44090.66230324074</v>
       </c>
       <c r="I215" t="n">
         <v>4</v>
@@ -16167,10 +15755,8 @@
           <t>3497917934</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:53:15</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44090.66197916667</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16246,10 +15832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:47:24</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44090.65791666666</v>
       </c>
       <c r="I217" t="n">
         <v>23</v>
@@ -16323,10 +15907,8 @@
           <t>3498033291</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:44:40</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44090.65601851852</v>
       </c>
       <c r="I218" t="n">
         <v>7</v>
@@ -16402,10 +15984,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:42:39</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44090.65461805555</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -16469,10 +16049,8 @@
           <t>3498024385</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:40:26</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44090.6530787037</v>
       </c>
       <c r="I220" t="n">
         <v>6</v>
@@ -16536,10 +16114,8 @@
           <t>3498025027</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:38:01</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44090.65140046296</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16611,10 +16187,8 @@
           <t>3498022561</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:37:55</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44090.65133101852</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16693,10 +16267,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:35:14</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44090.64946759259</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16764,10 +16336,8 @@
           <t>3497985798</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:32:17</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44090.64741898148</v>
       </c>
       <c r="I224" t="n">
         <v>7</v>
@@ -16831,10 +16401,8 @@
           <t>3498001279</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:27:38</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44090.64418981481</v>
       </c>
       <c r="I225" t="n">
         <v>23</v>
@@ -16906,10 +16474,8 @@
           <t>3497900523</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:27:05</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44090.64380787037</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16985,10 +16551,8 @@
           <t>3497982830</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:21:08</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44090.63967592592</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17060,10 +16624,8 @@
           <t>3497985798</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:19:37</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44090.63862268518</v>
       </c>
       <c r="I228" t="n">
         <v>8</v>
@@ -17131,10 +16693,8 @@
           <t>3497953351</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:18:47</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44090.63804398148</v>
       </c>
       <c r="I229" t="n">
         <v>6</v>
@@ -17210,10 +16770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:10:59</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44090.63262731482</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17285,10 +16843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:08:40</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44090.63101851852</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17358,10 +16914,8 @@
           <t>3497953351</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:07:38</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44090.63030092593</v>
       </c>
       <c r="I232" t="n">
         <v>103</v>
@@ -17429,10 +16983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:06:32</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44090.62953703704</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17500,10 +17052,8 @@
           <t>3497952021</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:05:43</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44090.6289699074</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17571,10 +17121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:04:21</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44090.62802083333</v>
       </c>
       <c r="I235" t="n">
         <v>100</v>
@@ -17642,10 +17190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:03:40</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44090.62754629629</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17713,10 +17259,8 @@
           <t>3497944634</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:03:20</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44090.62731481482</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17780,10 +17324,8 @@
           <t>3497939301</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-16 15:01:48</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44090.62625</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17851,10 +17393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:56:22</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44090.62247685185</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -17922,10 +17462,8 @@
           <t>3497871823</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:54:15</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44090.62100694444</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17997,10 +17535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:53:57</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44090.62079861111</v>
       </c>
       <c r="I241" t="n">
         <v>32</v>
@@ -18072,10 +17608,8 @@
           <t>3497871823</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:53:47</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44090.62068287037</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18147,10 +17681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:49:14</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44090.61752314815</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18226,10 +17758,8 @@
           <t>3497917934</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:48:47</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44090.61721064815</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -18293,10 +17823,8 @@
           <t>3497871823</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:48:16</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44090.61685185185</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18372,10 +17900,8 @@
           <t>3497871823</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:45:14</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44090.61474537037</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18447,10 +17973,8 @@
           <t>3497915130</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:44:45</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44090.61440972222</v>
       </c>
       <c r="I247" t="n">
         <v>4</v>
@@ -18526,10 +18050,8 @@
           <t>3497912006</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:44:28</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44090.61421296297</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18597,10 +18119,8 @@
           <t>3497871823</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:44:04</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44090.61393518518</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18672,10 +18192,8 @@
           <t>3497905894</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:43:14</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44090.61335648148</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18743,10 +18261,8 @@
           <t>3497905894</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:42:53</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44090.61311342593</v>
       </c>
       <c r="I251" t="n">
         <v>4</v>
@@ -18814,10 +18330,8 @@
           <t>3497849620</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:38:26</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44090.61002314815</v>
       </c>
       <c r="I252" t="n">
         <v>5</v>
@@ -18881,10 +18395,8 @@
           <t>3497900523</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:38:08</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44090.60981481482</v>
       </c>
       <c r="I253" t="n">
         <v>4</v>
@@ -18956,10 +18468,8 @@
           <t>3497891363</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:35:51</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44090.60822916667</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19027,10 +18537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:35:29</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44090.60797453704</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19094,10 +18602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:35:24</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44090.60791666667</v>
       </c>
       <c r="I256" t="n">
         <v>37</v>
@@ -19173,10 +18679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:33:19</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44090.6064699074</v>
       </c>
       <c r="I257" t="n">
         <v>16</v>
@@ -19252,10 +18756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:32:16</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44090.60574074074</v>
       </c>
       <c r="I258" t="n">
         <v>4</v>
@@ -19327,10 +18829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:32:10</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44090.6056712963</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19398,10 +18898,8 @@
           <t>3497874527</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:29:46</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44090.60400462963</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19477,10 +18975,8 @@
           <t>3497871823</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:26:00</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44090.60138888889</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19552,10 +19048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:25:47</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44090.60123842592</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -19627,10 +19121,8 @@
           <t>3497849620</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:21:32</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44090.59828703704</v>
       </c>
       <c r="I263" t="n">
         <v>18</v>
@@ -19706,10 +19198,8 @@
           <t>3497856693</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:18:55</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44090.59646990741</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19785,10 +19275,8 @@
           <t>3497849620</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:18:52</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44090.59643518519</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19856,10 +19344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:18:11</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44090.59596064815</v>
       </c>
       <c r="I266" t="n">
         <v>7</v>
@@ -19935,10 +19421,8 @@
           <t>3497851686</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:16:09</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44090.59454861111</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20011,10 +19495,8 @@
           <t>3497851193</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:15:29</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44090.59408564815</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20083,10 +19565,8 @@
           <t>3497846752</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:14:54</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44090.59368055555</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20158,10 +19638,8 @@
           <t>3497845725</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:14:52</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44090.59365740741</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20225,10 +19703,8 @@
           <t>3497842559</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:14:29</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44090.59339120371</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20292,10 +19768,8 @@
           <t>3497846119</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:14:02</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44090.59307870371</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20359,10 +19833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:13:33</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44090.59274305555</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20430,10 +19902,8 @@
           <t>3497845725</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:13:27</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44090.59267361111</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20509,10 +19979,8 @@
           <t>3497842559</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:13:16</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44090.5925462963</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20580,10 +20048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:12:07</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44090.59174768518</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20655,10 +20121,8 @@
           <t>3497841549</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:11:57</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44090.59163194444</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20734,10 +20198,8 @@
           <t>3497840623</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:10:40</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44090.59074074074</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20805,10 +20267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:10:11</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44090.59040509259</v>
       </c>
       <c r="I279" t="n">
         <v>77</v>
@@ -20880,10 +20340,8 @@
           <t>3497829929</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:09:44</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44090.5900925926</v>
       </c>
       <c r="I280" t="n">
         <v>14</v>
@@ -20959,10 +20417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:09:09</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44090.5896875</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -21026,10 +20482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:09:03</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44090.58961805556</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21097,10 +20551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:08:53</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44090.58950231481</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21164,10 +20616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:07:52</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44090.5887962963</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21231,10 +20681,8 @@
           <t>3497831361</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:07:36</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44090.58861111111</v>
       </c>
       <c r="I285" t="n">
         <v>2</v>
@@ -21306,10 +20754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:06:02</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44090.58752314815</v>
       </c>
       <c r="I286" t="n">
         <v>111</v>
@@ -21377,10 +20823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:05:34</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44090.58719907407</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21456,10 +20900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:04:23</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44090.58637731482</v>
       </c>
       <c r="I288" t="n">
         <v>387</v>
@@ -21535,10 +20977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:04:19</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44090.58633101852</v>
       </c>
       <c r="I289" t="n">
         <v>3</v>
@@ -21614,10 +21054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:03:48</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44090.58597222222</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21685,10 +21123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:02:55</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44090.5853587963</v>
       </c>
       <c r="I291" t="n">
         <v>11</v>
@@ -21756,10 +21192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:02:04</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44090.58476851852</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
